--- a/biology/Botanique/Geranium_macrorrhizum/Geranium_macrorrhizum.xlsx
+++ b/biology/Botanique/Geranium_macrorrhizum/Geranium_macrorrhizum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Géranium à grosses racines, Géranium à gros rhizome, Géranium à long rhizome ou Géranium à rhizome long (Geranium macrorrhizum) est une espèce de plantes de la famille des Geraniaceae. Elle est cultivée comme ornementale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée, aux souches vivaces, aux tiges de 10 à 30 cm de hauteur, aux feuilles orbiculaires, palmipartites, à 5-7 lobes crénelés-dentés[1], très odorantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée, aux souches vivaces, aux tiges de 10 à 30 cm de hauteur, aux feuilles orbiculaires, palmipartites, à 5-7 lobes crénelés-dentés, très odorantes.
 Les fleurs sont roses ou blanches, grandes, corymbiformes. Les inflorescences sont à racèmes de cymes unipares hélicoïdes. Elles sont hermaphrodites à pollinisation : entomogame, autogame. La floraison a lieu en avril en culture et l'été en montagne.
 Le fruit est une capsule et la dissémination épizoochore
 </t>
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le géranium à grosses racines est une plante originaire d'Europe, présente en Bulgarie, Roumanie, Autriche, Albanie, Yougoslavie, Grèce, Italie et France[2],[1].
-Le géranium à grosses racines n'a été retrouvé en France que dans quelques départements, Aisne, Alpes-Maritimes, Calvados, Loiret, Haute-Marne et Meuse, et uniquement dans 6 sites Natura 2000 et une ZNIEFF des Alpes-Maritimes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le géranium à grosses racines est une plante originaire d'Europe, présente en Bulgarie, Roumanie, Autriche, Albanie, Yougoslavie, Grèce, Italie et France,.
+Le géranium à grosses racines n'a été retrouvé en France que dans quelques départements, Aisne, Alpes-Maritimes, Calvados, Loiret, Haute-Marne et Meuse, et uniquement dans 6 sites Natura 2000 et une ZNIEFF des Alpes-Maritimes.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium macrorrhizum est cultivé comme couvre-sol ornemental. Son feuillage semi-persistant limite la pousse des "mauvaises herbes". Au printemps, il se couvre de fleurs rouge violet.
 C'est une plante rustique, ne craignant pas le gel.
